--- a/ラスボス.xlsx
+++ b/ラスボス.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="ラスボス" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,557 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>ステージ５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃方法</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人工天使ゼーレ・ヴァンデルグ</t>
+    <rPh sb="0" eb="2">
+      <t>ジンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浮遊している</t>
+    <rPh sb="0" eb="2">
+      <t>フユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定（もし図鑑的なやつ作る用）</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ズカンテキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力１０</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材に魂と人間</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒すとクリア</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対称ビーム</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偉い聖職者の1人が独断で造った</t>
+    <rPh sb="0" eb="1">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイショクシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドクダン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備で宝石が光る</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨を降らしたあと足場の下以外に攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨自体は無害、電気玉が残る</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ムガイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>デンキダマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突進。電気玉に当たるとスタン</t>
+    <rPh sb="0" eb="2">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突進（狙い定める）</t>
+    <rPh sb="0" eb="2">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨→雷（光輪光る）</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP10の雑魚を２、３体召喚</t>
+    <rPh sb="5" eb="7">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３体に1体行動デバフ付与持ち</t>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚召喚（魔法陣グルグル）</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>マホウジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP４００</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未スタン時、足場貫通</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦向きの２本のビーム（貫通）</t>
+    <rPh sb="0" eb="2">
+      <t>タテム</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電気玉は敵か主人公が当たると消滅</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼーレ以外には１０ダメを与える</t>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷も同様</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワーシュ・ダーソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP１０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚召喚対象</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバフ枠</t>
+    <rPh sb="3" eb="4">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力０（接触ダメはあり）</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泡</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度１</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泡を数個出す、触れるとノックバック</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泡は攻撃一回につき一つ破壊可能</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルビ・ローへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚召喚対象</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバフ枠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガスを出す触れると操作反転</t>
+    <rPh sb="3" eb="4">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ソウサハンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲はルビ５体分ぐらい</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミーグ・ニューム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP１０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公に向かってくる</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュト・ミーシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP１０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃えてる</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨時点で死ぬ</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離（増火）</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎を飛ばす</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>混乱は５秒持続</t>
+    <rPh sb="0" eb="2">
+      <t>コンラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジゾク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -34,7 +582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +606,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,7 +631,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -75,20 +639,773 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -106,6 +1423,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>554160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952501" y="1781175"/>
+          <a:ext cx="2344859" cy="1772172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,113 +1737,783 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="14"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="32"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="14"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="57"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="14"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+    </row>
+    <row r="33" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B34" s="14"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="57"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="35"/>
+    </row>
+    <row r="39" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
+    </row>
+    <row r="40" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="44"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B41" s="14"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="32"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" s="33"/>
+      <c r="K41" s="34"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="42"/>
+      <c r="K42" s="57"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="32"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="57"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="57"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="32"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="35"/>
+    </row>
+    <row r="46" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="96">
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:E46"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E25"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="B8:E18"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="A1:E5"/>
-    <mergeCell ref="B7:E14"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ラスボス.xlsx
+++ b/ラスボス.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>ステージ５</t>
     <phoneticPr fontId="1"/>
@@ -575,6 +575,24 @@
     <rPh sb="5" eb="7">
       <t>ジゾク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂を落とさない</t>
+    <rPh sb="0" eb="1">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂を落とさない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂を落とさない</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1237,175 +1255,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1739,48 +1757,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:H32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="57"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
@@ -1788,662 +1806,690 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="14" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="40" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="14"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="15" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="48" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="17" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="18"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="19" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="49" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="21" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="50" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="35"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="19" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="48" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="35"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="19" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="51" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="50" t="s">
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="35"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="31" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="35"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="19" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="29" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="48" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="49" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="35"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="50" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="16" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="14"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="20" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="15" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="20" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="58" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="20" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="57"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="20" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="35"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="56" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="35"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="15" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="14"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="19" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="15" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="19" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="19" t="s">
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="32"/>
-      <c r="K28" s="35"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="19" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="23" t="s">
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="19" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="57"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="19" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="35"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="25"/>
     </row>
     <row r="33" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="15" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="44"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B34" s="14"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="19" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="19" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="57"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="19" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="57"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="19" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="57"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="35"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="21"/>
     </row>
     <row r="39" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="25"/>
     </row>
     <row r="40" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="15" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="44"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B41" s="14"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="19" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="15" t="s">
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="34"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="19" t="s">
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="41" t="s">
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J42" s="42"/>
-      <c r="K42" s="57"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="19" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="57"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="19" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="57"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="19" t="s">
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="35"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="21"/>
     </row>
     <row r="46" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="37"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:E46"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:E39"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="B8:E18"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E25"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E32"/>
@@ -2460,56 +2506,36 @@
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="B8:E18"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:E46"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ラスボス.xlsx
+++ b/ラスボス.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>ステージ５</t>
     <phoneticPr fontId="1"/>
@@ -593,6 +593,40 @@
   </si>
   <si>
     <t>魂を落とさない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シュワシュワして涼しい</t>
+    <rPh sb="8" eb="9">
+      <t>スズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臭い</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝撃に強い</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>油汚れが収まらない</t>
+    <rPh sb="0" eb="2">
+      <t>アブラヨゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オサ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1261,12 +1295,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1279,151 +1361,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1481,6 +1515,182 @@
         <a:xfrm>
           <a:off x="952501" y="1781175"/>
           <a:ext cx="2344859" cy="1772172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>186214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209676" y="6381751"/>
+          <a:ext cx="1733550" cy="1310163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172141</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>63700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="8153401"/>
+          <a:ext cx="1458016" cy="1101924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403830</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447799" y="9717150"/>
+          <a:ext cx="1699231" cy="1284226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>678965</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>210241</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1364765" y="4686300"/>
+          <a:ext cx="1588676" cy="1200672"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,48 +1967,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="57"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="57"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="57"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="58"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
@@ -1806,690 +2016,694 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="9" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="9" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="45" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="46"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="39" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="28" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="15" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="40" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="31" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="31"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="15" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="41" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="35"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="15" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="39" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="34"/>
       <c r="N11" s="35"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="15" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="48" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="53" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="41" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="35"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="53" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="49" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="35"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="15" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="51" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="38"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="39" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="40" t="s">
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="41" t="s">
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="4" t="s">
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="27" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="30" t="s">
+    <row r="20" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="25"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="6" t="s">
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="30" t="s">
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="26" t="s">
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="30" t="s">
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="30" t="s">
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="55"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="32" t="s">
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="33" t="s">
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="4" t="s">
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="15" t="s">
+    <row r="27" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="25"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="6" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="15" t="s">
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="15" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="15" t="s">
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="22" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="25"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="15" t="s">
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="15" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="55"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="22" t="s">
+      <c r="G31" s="5"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="25"/>
-    </row>
-    <row r="33" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="4" t="s">
+      <c r="G32" s="29"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="15" t="s">
+    <row r="34" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="25"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="15" t="s">
+      <c r="G34" s="5"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="15" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="55"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="15" t="s">
+      <c r="G36" s="5"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="55"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="20"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="15" t="s">
+      <c r="G37" s="5"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="55"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="25"/>
-    </row>
-    <row r="40" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="4" t="s">
+      <c r="G38" s="5"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="30"/>
+    </row>
+    <row r="40" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="15" t="s">
+    <row r="41" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="25"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="6" t="s">
+      <c r="G41" s="5"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="15" t="s">
+      <c r="J41" s="23"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M41" s="20"/>
+      <c r="N41" s="21"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="18" t="s">
+      <c r="G42" s="5"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="J42" s="19"/>
-      <c r="K42" s="20"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="15" t="s">
+      <c r="J42" s="45"/>
+      <c r="K42" s="55"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="20"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="15" t="s">
+      <c r="G43" s="5"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="55"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="20"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="15" t="s">
+      <c r="G44" s="5"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="55"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="22" t="s">
+      <c r="G45" s="5"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="25"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="B8:E18"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
+  <mergeCells count="100">
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:E46"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E32"/>
@@ -2506,36 +2720,56 @@
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:E39"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:E46"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B20:E25"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:E18"/>
+    <mergeCell ref="F15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ラスボス.xlsx
+++ b/ラスボス.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>ステージ５</t>
     <phoneticPr fontId="1"/>
@@ -529,19 +529,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>雨時点で死ぬ</t>
-    <rPh sb="0" eb="1">
-      <t>アメ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遠距離（増火）</t>
     <rPh sb="0" eb="3">
       <t>エンキョリ</t>
@@ -555,16 +542,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>炎を飛ばす</t>
-    <rPh sb="0" eb="1">
-      <t>ホノオ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>混乱は５秒持続</t>
     <rPh sb="0" eb="2">
       <t>コンラン</t>
@@ -627,6 +604,64 @@
     <rPh sb="4" eb="5">
       <t>オサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横方向に炎を飛ばす</t>
+    <rPh sb="0" eb="3">
+      <t>ヨコホウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨→雷は雨時点で死ぬ</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廊下</t>
+    <rPh sb="0" eb="2">
+      <t>ロウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -683,7 +718,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1276,13 +1311,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1295,6 +1369,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1304,6 +1423,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,55 +1438,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1376,21 +1465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1403,33 +1477,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,6 +1516,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1451,14 +1534,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,7 +1708,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>403830</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1691,6 +1777,50 @@
         <a:xfrm>
           <a:off x="1364765" y="4686300"/>
           <a:ext cx="1588676" cy="1200672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38706</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400425" y="11363325"/>
+          <a:ext cx="2810481" cy="2124075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1965,50 +2095,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
@@ -2016,660 +2146,690 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="25" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="31" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="25"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="22" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="26" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="32" t="s">
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="27" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="34" t="s">
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="28" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="26" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="36"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="43" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="36"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="7" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="28" t="s">
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="36"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="35"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="7" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="44" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="46"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="36"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="35"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="47" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="48"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
       <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="26" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="27" t="s">
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="28" t="s">
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-    </row>
-    <row r="19" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="19" t="s">
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="25"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+    <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="22"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="22" t="s">
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
-    </row>
-    <row r="21" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="53" t="s">
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="55"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="58"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-    </row>
-    <row r="26" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="19" t="s">
+      <c r="I25" s="54"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="22" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="25"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="4" t="s">
+    <row r="27" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="22"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="22" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="4" t="s">
+      <c r="J27" s="17"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="4" t="s">
+      <c r="G28" s="20"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="4" t="s">
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="56" t="s">
+      <c r="G29" s="20"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="4" t="s">
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="55"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="4" t="s">
+      <c r="G30" s="20"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="58"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-    </row>
-    <row r="33" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="19" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="22" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="25"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="4" t="s">
+    <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="22"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="4" t="s">
+      <c r="G34" s="20"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="55"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="4" t="s">
+      <c r="G35" s="20"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="58"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="55"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="4" t="s">
+      <c r="G36" s="20"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="58"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="55"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="30"/>
-    </row>
-    <row r="40" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="19" t="s">
+      <c r="G37" s="20"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="58"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="35"/>
+    </row>
+    <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="22" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="25"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="4" t="s">
+    <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="22"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="19" t="s">
+      <c r="G41" s="20"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" s="14"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" s="60"/>
+      <c r="K42" s="61"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="58"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="58"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="M41" s="20"/>
-      <c r="N41" s="21"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" s="45"/>
-      <c r="K42" s="55"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="55"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="55"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="30"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="7"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="34"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="35"/>
+    </row>
+    <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="15"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="62"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="101">
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="L20:N20"/>
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="L34:N34"/>
@@ -2733,8 +2893,6 @@
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="B19:E19"/>
@@ -2744,6 +2902,7 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
@@ -2762,7 +2921,8 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F8:H8"/>

--- a/ラスボス.xlsx
+++ b/ラスボス.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>ステージ５</t>
     <phoneticPr fontId="1"/>
@@ -401,13 +401,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動速度１</t>
-    <rPh sb="0" eb="4">
-      <t>イドウソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>泡を数個出す、触れるとノックバック</t>
     <rPh sb="0" eb="1">
       <t>アワ</t>
@@ -662,6 +655,308 @@
   </si>
   <si>
     <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏入口</t>
+    <rPh sb="0" eb="1">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イリグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏ボス</t>
+    <rPh sb="0" eb="1">
+      <t>ウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP800</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力10</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼーレ以外には１0ダメを与える</t>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦向きの2本のビーム（貫通）</t>
+    <rPh sb="0" eb="2">
+      <t>タテム</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP10の雑魚を3、４体召喚</t>
+    <rPh sb="5" eb="7">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼーレ・ヴァンデルグ・バベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死神は鎌を使うため利点を生かせない</t>
+    <rPh sb="0" eb="2">
+      <t>シニガミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リテン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火加減は自由に調整可能</t>
+    <rPh sb="0" eb="3">
+      <t>ヒカゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>チョウセイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度0.8</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭上の溶液をひっくり返すと
+泡が出せなくなってしまう</t>
+    <rPh sb="0" eb="2">
+      <t>ズジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最近偉い人が隠れて大量の酒を飲んでるという噂が流れている</t>
+    <rPh sb="0" eb="2">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サケ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材不明</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは現実なのか？</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂×１０</t>
+    <rPh sb="0" eb="1">
+      <t>タマシイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂を落とさない</t>
+    <rPh sb="0" eb="1">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キッパ・プチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP１０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚召喚対象（裏）</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっとしたことで爆発するので注意が必要</t>
+    <rPh sb="9" eb="11">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆はキッパと主人公にダメ</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シュジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度0.７</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火薬で重い</t>
+    <rPh sb="0" eb="2">
+      <t>カヤク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身に１０ダメ、範囲はキッパ３体分</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡時に自爆</t>
+    <rPh sb="0" eb="3">
+      <t>シボウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジバク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆ダメで他のキッパに誘爆</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウバク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1356,7 +1651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,182 +1664,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1620,7 +1945,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>186214</xdr:rowOff>
+      <xdr:rowOff>176689</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1664,7 +1989,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>172141</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>63700</xdr:rowOff>
+      <xdr:rowOff>54175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1752,7 +2077,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>210241</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>76722</xdr:rowOff>
+      <xdr:rowOff>67197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1787,16 +2112,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>38706</xdr:colOff>
+      <xdr:colOff>162531</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1819,7 +2144,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3400425" y="11363325"/>
+          <a:off x="3524250" y="11334750"/>
           <a:ext cx="2810481" cy="2124075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1829,6 +2154,57 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2344859" cy="1772172"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:artisticGlowEdges/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="240000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952501" y="1781175"/>
+          <a:ext cx="2344859" cy="1772172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2095,740 +2471,1142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="22" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="27" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="22"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="16" t="s">
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="19"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="29"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B8" s="33"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="23" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="28" t="s">
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="19" t="s">
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="31"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="42"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="32" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="30" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="19" t="s">
+      <c r="M9" s="35"/>
+      <c r="N9" s="36"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="36"/>
+    </row>
+    <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="33" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="19" t="s">
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="36"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="36"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="23" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="19" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="36"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="36"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="40" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="24" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="36"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="9"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="36"/>
+    </row>
+    <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="33" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="24" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" s="12"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="36"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="41" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="19" t="s">
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="36"/>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="44" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="37"/>
       <c r="M15" s="38"/>
       <c r="N15" s="39"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="23" t="s">
+      <c r="P15" s="21"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" s="9"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="39"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="32" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U16" s="9"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="32"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="33" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="17"/>
+    </row>
+    <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="49" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="22"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="36" t="s">
+      <c r="P19" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="U19" s="41"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="33"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="16" t="s">
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="36" t="s">
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="29"/>
+    </row>
+    <row r="21" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="56" t="s">
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="67"/>
+      <c r="N21" s="68"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="68"/>
+    </row>
+    <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="71"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="71"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="U23" s="35"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="55"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="58"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="50" t="s">
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="U24" s="35"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="10"/>
+    </row>
+    <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="U25" s="38"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="17"/>
+    </row>
+    <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
-    </row>
-    <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="16" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="22"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="19" t="s">
+    <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="33"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="16" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="19" t="s">
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="67"/>
+      <c r="N28" s="68"/>
+    </row>
+    <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="19" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="19" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="55"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="58"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="35"/>
-    </row>
-    <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="13" t="s">
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="22"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="19" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="58"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+    </row>
+    <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" s="28"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="19" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="55"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="55"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17"/>
+    </row>
+    <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="58"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="58"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="35"/>
-    </row>
-    <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="13" t="s">
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="32"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="22"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="19" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="13" t="s">
+      <c r="G41" s="9"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="31"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" s="28"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="15"/>
-    </row>
-    <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="59" t="s">
+      <c r="J42" s="64"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42" s="28"/>
+      <c r="N42" s="29"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="55"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="55"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J42" s="60"/>
-      <c r="K42" s="61"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="58"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="58"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="21"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="7"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="34"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="35"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="17"/>
     </row>
     <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="29"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D53" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="15"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D53" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D54" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D54" t="s">
+      <c r="E54" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="62"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="158">
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="L28:N29"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="P20:S25"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="P8:S18"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="L20:N20"/>
     <mergeCell ref="L27:N27"/>
@@ -2850,18 +3628,6 @@
     <mergeCell ref="F46:H46"/>
     <mergeCell ref="I46:K46"/>
     <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:E39"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="I39:K39"/>
     <mergeCell ref="I25:K25"/>
@@ -2880,8 +3646,12 @@
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
@@ -2893,16 +3663,6 @@
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F14:H14"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L13:N13"/>
@@ -2917,6 +3677,9 @@
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
@@ -2930,6 +3693,16 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="B8:E18"/>
     <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ラスボス.xlsx
+++ b/ラスボス.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>ステージ５</t>
     <phoneticPr fontId="1"/>
@@ -850,10 +850,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キッパ・プチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HP１０</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -956,6 +952,57 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ユウバク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体的に攻撃が早い</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂コンプ時</t>
+    <rPh sb="0" eb="1">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リッパ・プチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くにルビを置くな</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引火はしにくいが火気厳禁</t>
+    <rPh sb="0" eb="2">
+      <t>インカ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>カキゲンキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1651,7 +1698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1670,6 +1717,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1754,6 +1804,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1781,12 +1849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1799,19 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1945,7 +1995,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>176689</xdr:rowOff>
+      <xdr:rowOff>167164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2077,7 +2127,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>210241</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>67197</xdr:rowOff>
+      <xdr:rowOff>57672</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2205,6 +2255,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>92851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10887076" y="4676776"/>
+          <a:ext cx="1647824" cy="1245375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2473,48 +2567,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
@@ -2525,1012 +2619,1032 @@
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="33" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="40" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="33" t="s">
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="19"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="33" t="s">
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="40" t="s">
+      <c r="X7" s="20"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="30"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B8" s="33"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="30" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="43" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="41" t="s">
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="30" t="s">
+      <c r="M8" s="48"/>
+      <c r="N8" s="49"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="31"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="43" t="s">
+      <c r="U8" s="32"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="41" t="s">
+      <c r="X8" s="32"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="42"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="49"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="8" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="44" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="35" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="36"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="8" t="s">
+      <c r="M9" s="42"/>
+      <c r="N9" s="43"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="44" t="s">
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="35" t="s">
+      <c r="X9" s="10"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="36"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="43"/>
     </row>
     <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="8" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="15" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="36"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="8" t="s">
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="15" t="s">
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="36"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="43"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="8" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="43" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="36"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="8" t="s">
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="43" t="s">
+      <c r="U11" s="10"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="36"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="43"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="8" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="14" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="36"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="8" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="9"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="14" t="s">
+      <c r="U12" s="10"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="36"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="43"/>
     </row>
     <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="11" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="15" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="11" t="s">
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="43"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="12"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="15" t="s">
+      <c r="U13" s="13"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="36"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="43"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="11" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="45" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="11" t="s">
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="U14" s="9"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="45" t="s">
+      <c r="U14" s="10"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="36"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="43"/>
     </row>
     <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="8" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="48" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="8" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="46"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U15" s="9"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="48" t="s">
+      <c r="U15" s="10"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="39"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="46"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="8" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="43" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="8" t="s">
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="U16" s="9"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="43" t="s">
+      <c r="U16" s="10"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="33"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="44" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="44" t="s">
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U17" s="10"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="11"/>
     </row>
     <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="15" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="15" t="s">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="18"/>
     </row>
     <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="56" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
-      <c r="P19" s="27" t="s">
+      <c r="P19" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="U19" s="41"/>
-      <c r="V19" s="42"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="49"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="33"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="34" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="30" t="s">
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="27" t="s">
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="34" t="s">
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="30" t="s">
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="30"/>
+    </row>
+    <row r="21" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="68"/>
+      <c r="N21" s="69"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="28" t="s">
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="29"/>
-    </row>
-    <row r="21" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="68"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="34" t="s">
+      <c r="X21" s="10"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="72" t="s">
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="69"/>
+    </row>
+    <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="72"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="67" t="s">
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="72"/>
+    </row>
+    <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="68"/>
-    </row>
-    <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="71"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="71"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="34" t="s">
+      <c r="U23" s="42"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="30"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="U23" s="35"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="55"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="U24" s="35"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="10"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="11"/>
     </row>
     <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="58" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="17"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="37" t="s">
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="18"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="U25" s="38"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="17"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="30" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="33"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="8" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="30" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="27" t="s">
+      <c r="J27" s="32"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="8" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="8" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="66" t="s">
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="M28" s="67"/>
-      <c r="N28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="69"/>
     </row>
     <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="8" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="60" t="s">
+      <c r="G29" s="10"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="71"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="8" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
+    </row>
+    <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="55"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="29"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="8" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="60" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="30" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="33"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="8" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="27" t="s">
+      <c r="G34" s="10"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="30"/>
     </row>
     <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="8" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="40" t="s">
+      <c r="G35" s="10"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="M35" s="28"/>
-      <c r="N35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="30"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="8" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="55"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="8" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="55"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="56"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="8" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="17"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="18"/>
     </row>
     <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="30" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="33"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="8" t="s">
+      <c r="B41" s="34"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="30" t="s">
+      <c r="G41" s="10"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="27" t="s">
+      <c r="J41" s="32"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M41" s="28"/>
-      <c r="N41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="30"/>
     </row>
     <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="8" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="63" t="s">
+      <c r="G42" s="10"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="27" t="s">
+      <c r="J42" s="65"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="30"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="8" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="55"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="56"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="8" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="55"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="56"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="8" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="21"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="60" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="18"/>
     </row>
     <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="30"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E52" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
         <v>63</v>
       </c>
+      <c r="E53" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F54" s="5"/>
@@ -3540,20 +3654,18 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="7"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="158">
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="T23:V23"/>
+  <mergeCells count="160">
     <mergeCell ref="T17:V17"/>
     <mergeCell ref="W17:Y17"/>
     <mergeCell ref="T18:V18"/>
     <mergeCell ref="W18:Y18"/>
     <mergeCell ref="L28:N29"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="L30:N30"/>
     <mergeCell ref="L35:N35"/>
     <mergeCell ref="L42:N42"/>
     <mergeCell ref="L21:N22"/>
@@ -3570,6 +3682,10 @@
     <mergeCell ref="W22:Y22"/>
     <mergeCell ref="T24:V24"/>
     <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="T23:V23"/>
     <mergeCell ref="W13:Y13"/>
     <mergeCell ref="Z13:AB13"/>
     <mergeCell ref="T14:V14"/>

--- a/ラスボス.xlsx
+++ b/ラスボス.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
   <si>
     <t>ステージ５</t>
     <phoneticPr fontId="1"/>
@@ -1003,6 +1003,102 @@
     </rPh>
     <rPh sb="8" eb="12">
       <t>カキゲンキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス戦はボス浮いてスタート</t>
+    <rPh sb="2" eb="3">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（時間があれば）</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP１０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョド・コロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロドロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロドロを出す触れると移動低下</t>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射程はチョド２.５体分ぐらい</t>
+    <rPh sb="0" eb="2">
+      <t>シャテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘い匂いがする</t>
+    <rPh sb="0" eb="1">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低下率は５０％、５秒持続</t>
+    <rPh sb="0" eb="3">
+      <t>テイカリツ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ビョウジゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベタベタして掃除が大変</t>
+    <rPh sb="6" eb="8">
+      <t>ソウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイヘン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1698,7 +1794,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1720,21 +1816,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1750,60 +1927,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1852,9 +1987,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1864,12 +1996,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1882,15 +2008,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1899,24 +2016,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2567,1102 +2666,1215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30:AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="O6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="34" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="34" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="47" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="34" t="s">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="20"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="34" t="s">
+      <c r="U7" s="14"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="47" t="s">
+      <c r="X7" s="14"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="30"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="22"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B8" s="34"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="31" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="35" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="48" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="31" t="s">
+      <c r="M8" s="61"/>
+      <c r="N8" s="62"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="32"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="35" t="s">
+      <c r="U8" s="11"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="48" t="s">
+      <c r="X8" s="11"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="49"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="62"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="9" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="36" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="42" t="s">
+      <c r="J9" s="20"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="9" t="s">
+      <c r="M9" s="55"/>
+      <c r="N9" s="56"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U9" s="10"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="36" t="s">
+      <c r="U9" s="20"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="42" t="s">
+      <c r="X9" s="20"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="43"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="56"/>
     </row>
     <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="9" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="16" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="9" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="56"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="16" t="s">
+      <c r="U10" s="20"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="43"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="9" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="35" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="9" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="56"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="35" t="s">
+      <c r="U11" s="20"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="43"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="56"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="9" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="15" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="9" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="56"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="10"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="15" t="s">
+      <c r="U12" s="20"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="43"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="56"/>
     </row>
     <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="12" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="16" t="s">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="12" t="s">
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="56"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="16" t="s">
+      <c r="U13" s="40"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="43"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="56"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="12" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="50" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="12" t="s">
+      <c r="J14" s="34"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="56"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="U14" s="10"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="50" t="s">
+      <c r="U14" s="20"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="43"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="56"/>
     </row>
     <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="9" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="53" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="46"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="9" t="s">
+      <c r="J15" s="51"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="53" t="s">
+      <c r="U15" s="20"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="46"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="59"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="9" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="35" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="9" t="s">
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="U16" s="10"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="35" t="s">
+      <c r="U16" s="20"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="33"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="12"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="36" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="9" t="s">
+      <c r="J17" s="20"/>
+      <c r="K17" s="23"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="U17" s="10"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="36" t="s">
+      <c r="U17" s="20"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="11"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="23"/>
     </row>
     <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="16" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="16" t="s">
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="18"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="32"/>
     </row>
     <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="57" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
-      <c r="P19" s="28" t="s">
+      <c r="P19" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="57" t="s">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="U19" s="48"/>
-      <c r="V19" s="49"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="62"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="34"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="41" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="31" t="s">
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="28" t="s">
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="30"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="41" t="s">
+      <c r="M20" s="9"/>
+      <c r="N20" s="22"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="31" t="s">
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="29" t="s">
+      <c r="X20" s="11"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="30"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="22"/>
     </row>
     <row r="21" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="41" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="40" t="s">
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="67" t="s">
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="68"/>
-      <c r="N21" s="69"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="41" t="s">
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="73" t="s">
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="68" t="s">
+      <c r="X21" s="20"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="69"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="26"/>
     </row>
     <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="41" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="72"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="41" t="s">
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="61" t="s">
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="72"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="29"/>
     </row>
     <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="41" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="11"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="41" t="s">
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="23"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="U23" s="42"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="28" t="s">
+      <c r="U23" s="55"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="30"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="22"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="58" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="41" t="s">
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="23"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="U24" s="42"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="11"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="23"/>
     </row>
     <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="59" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="44" t="s">
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="U25" s="45"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="18"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="32"/>
     </row>
     <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="31" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
+      <c r="P26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="U26" s="11"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="34"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="9" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="31" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="28" t="s">
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="29"/>
-      <c r="N27" s="30"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="22"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="20"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="22"/>
     </row>
     <row r="28" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="9" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="9" t="s">
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="67" t="s">
+      <c r="J28" s="20"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="M28" s="68"/>
-      <c r="N28" s="69"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" s="20"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="26"/>
     </row>
     <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="9" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="61" t="s">
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="72"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="U29" s="20"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="29"/>
     </row>
     <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="9" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="28" t="s">
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="M30" s="29"/>
-      <c r="N30" s="30"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="22"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="U30" s="20"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="22"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="9" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="11"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="23"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="U31" s="20"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="23"/>
     </row>
     <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="61" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="U32" s="31"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="32"/>
     </row>
     <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="31" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="34"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="9" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="28" t="s">
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M34" s="29"/>
-      <c r="N34" s="30"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="9" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="47" t="s">
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="M35" s="29"/>
-      <c r="N35" s="30"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="9" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="56"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="35"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="9" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="56"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="35"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="9" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="11"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="23"/>
     </row>
     <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="18"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
     </row>
     <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="31" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="34"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="9" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="31" t="s">
+      <c r="G41" s="20"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="32"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="28" t="s">
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M41" s="29"/>
-      <c r="N41" s="30"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="22"/>
     </row>
     <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="9" t="s">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64" t="s">
+      <c r="G42" s="20"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="J42" s="65"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="28" t="s">
+      <c r="J42" s="72"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="30"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="22"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="9" t="s">
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="56"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="35"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="9" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="56"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="35"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="9" t="s">
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="11"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="23"/>
     </row>
     <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="22"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="61" t="s">
+      <c r="B46" s="15"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="18"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="32"/>
     </row>
     <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="30"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="22"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E52" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
         <v>63</v>
       </c>
       <c r="E53" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="37" t="s">
         <v>65</v>
       </c>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="38"/>
       <c r="F55" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="160">
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
+  <mergeCells count="178">
     <mergeCell ref="L28:N29"/>
     <mergeCell ref="Z23:AB23"/>
     <mergeCell ref="L30:N30"/>
@@ -3696,6 +3908,10 @@
     <mergeCell ref="Z15:AB15"/>
     <mergeCell ref="T16:V16"/>
     <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="B34:E39"/>
     <mergeCell ref="F34:H34"/>
@@ -3819,6 +4035,24 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="P27:S32"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ラスボス.xlsx
+++ b/ラスボス.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
   <si>
     <t>ステージ５</t>
     <phoneticPr fontId="1"/>
@@ -890,16 +890,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自爆はキッパと主人公にダメ</t>
-    <rPh sb="0" eb="2">
-      <t>ジバク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>シュジンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動速度0.７</t>
     <rPh sb="0" eb="4">
       <t>イドウソクド</t>
@@ -917,45 +907,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自身に１０ダメ、範囲はキッパ３体分</t>
-    <rPh sb="0" eb="2">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡時に自爆</t>
-    <rPh sb="0" eb="3">
-      <t>シボウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジバク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自爆ダメで他のキッパに誘爆</t>
-    <rPh sb="0" eb="2">
-      <t>ジバク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ユウバク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全体的に攻撃が早い</t>
     <rPh sb="0" eb="3">
       <t>ゼンタイテキ</t>
@@ -1099,6 +1050,78 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>タイヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対称ビーム○</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡時に自爆（１０ダメ）</t>
+    <rPh sb="0" eb="3">
+      <t>シボウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジバク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身に１０ダメ、範囲はリッパ３体分</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆ダメで他のリッパに誘爆</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウバク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆はリッパと主人公にダメ</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シュジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏は虫の死骸がついていない日がない</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1794,7 +1817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1819,54 +1842,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1885,6 +1860,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1894,6 +1932,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1903,7 +1944,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1912,112 +2031,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2666,1180 +2692,1182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30:AB30"/>
+    <sheetView tabSelected="1" topLeftCell="N22" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="46"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="46"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="46"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="72"/>
     </row>
     <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="47"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="13" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="60" t="s">
+      <c r="J7" s="22"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="22"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="13" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="13" t="s">
+      <c r="U7" s="22"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="60" t="s">
+      <c r="X7" s="22"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="22"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="10" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="48" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="30"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="62"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="61" t="s">
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="62"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="19" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="49" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="55" t="s">
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="56"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="19" t="s">
+      <c r="M9" s="28"/>
+      <c r="N9" s="38"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="U9" s="20"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="49" t="s">
+      <c r="U9" s="33"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="55" t="s">
+      <c r="X9" s="33"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="56"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="38"/>
     </row>
     <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="43" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="56"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="19" t="s">
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="38"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="20"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="43" t="s">
+      <c r="U10" s="33"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="56"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="38"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="19" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="48" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="56"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="19" t="s">
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="38"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="20"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="48" t="s">
+      <c r="U11" s="33"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="56"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="38"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="19" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="42" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="56"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="19" t="s">
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="38"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="20"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="42" t="s">
+      <c r="U12" s="33"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="56"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="38"/>
     </row>
     <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="39" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="43" t="s">
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="56"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="39" t="s">
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="38"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="40"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="43" t="s">
+      <c r="U13" s="60"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="56"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="38"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="39" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="63" t="s">
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="39" t="s">
+      <c r="J14" s="40"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="38"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="U14" s="20"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="63" t="s">
+      <c r="U14" s="33"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="56"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="38"/>
     </row>
     <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="19" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="65" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="51"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="59"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="19" t="s">
+      <c r="K15" s="52"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="U15" s="20"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="65" t="s">
+      <c r="U15" s="33"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="50" t="s">
         <v>15</v>
       </c>
       <c r="X15" s="51"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="59"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="45"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="19" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="48" t="s">
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="19" t="s">
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="U16" s="20"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="48" t="s">
+      <c r="U16" s="33"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="12"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="31"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="49" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="23"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="U17" s="20"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="49" t="s">
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="U17" s="33"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="23"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="34"/>
     </row>
     <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="50"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="43" t="s">
+      <c r="H18" s="56"/>
+      <c r="I18" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="50"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="55"/>
       <c r="U18" s="51"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="43" t="s">
+      <c r="V18" s="56"/>
+      <c r="W18" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="32"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="37"/>
     </row>
     <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="67" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="62"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
-      <c r="P19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="67" t="s">
+      <c r="P19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="U19" s="61"/>
-      <c r="V19" s="62"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="20"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="54" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="10" t="s">
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="8" t="s">
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="22"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="54" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="10" t="s">
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="22"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="16"/>
     </row>
     <row r="21" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="54" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="53" t="s">
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="24" t="s">
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="54" t="s">
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="25" t="s">
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="26"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="10"/>
     </row>
     <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="54" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="29"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="29"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="13"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="13"/>
     </row>
     <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="54" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="23"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="54" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="U23" s="28"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="16"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="U23" s="55"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="22"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="23"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="U24" s="55"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="23"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="34"/>
     </row>
     <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="69" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="57" t="s">
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="U25" s="58"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="32"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="37"/>
     </row>
     <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
-      <c r="P26" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="U26" s="11"/>
-      <c r="V26" s="12"/>
+      <c r="P26" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="U26" s="30"/>
+      <c r="V26" s="31"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="19" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="10" t="s">
+      <c r="G27" s="33"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="8" t="s">
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="22"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="19" t="s">
+      <c r="M27" s="15"/>
+      <c r="N27" s="16"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="U27" s="20"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="10" t="s">
+      <c r="U27" s="33"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="16"/>
+    </row>
+    <row r="28" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="10"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" s="33"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="10"/>
+    </row>
+    <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="U29" s="33"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="13"/>
+    </row>
+    <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="16"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="U30" s="33"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="16"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="22"/>
-    </row>
-    <row r="28" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="26"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="U28" s="20"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="26"/>
-    </row>
-    <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="U29" s="20"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="29"/>
-    </row>
-    <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="22"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="U30" s="20"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="22"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="23"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="U31" s="20"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="23"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
     </row>
     <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="30" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="30" t="s">
+      <c r="G32" s="36"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="U32" s="31"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="32"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="37"/>
     </row>
     <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="19" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="8" t="s">
+      <c r="G34" s="33"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="22"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="16"/>
     </row>
     <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="19" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="60" t="s">
+      <c r="G35" s="33"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="22"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="19" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="35"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="19" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="35"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="19" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="23"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
     </row>
     <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="19" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="10" t="s">
+      <c r="G41" s="33"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="8" t="s">
+      <c r="J41" s="30"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="22"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="16"/>
     </row>
     <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="19" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="71" t="s">
+      <c r="G42" s="33"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="J42" s="72"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="8" t="s">
+      <c r="J42" s="63"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="22"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="16"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="35"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="41"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="35"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="41"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="19" t="s">
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="23"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="15"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="30" t="s">
+      <c r="B46" s="23"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="32"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="16"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E52" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -3847,20 +3875,20 @@
         <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="69" t="s">
         <v>65</v>
       </c>
       <c r="F54" s="5"/>
@@ -3870,75 +3898,89 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="38"/>
+      <c r="E55" s="70"/>
       <c r="F55" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="L28:N29"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L21:N22"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="P20:S25"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:E39"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="P8:S18"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="P27:S32"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:E18"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B20:E25"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="L20:N20"/>
     <mergeCell ref="L27:N27"/>
@@ -3963,6 +4005,37 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="I39:K39"/>
     <mergeCell ref="I25:K25"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="P8:S18"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E32"/>
     <mergeCell ref="I27:K27"/>
@@ -3974,85 +4047,40 @@
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B20:E25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:E18"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="L28:N29"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="P20:S25"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="T23:V23"/>
     <mergeCell ref="P26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="P27:S32"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ラスボス.xlsx
+++ b/ラスボス.xlsx
@@ -236,19 +236,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HP10の雑魚を２、３体召喚</t>
-    <rPh sb="5" eb="7">
-      <t>ザコ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>３体に1体行動デバフ付与持ち</t>
     <rPh sb="1" eb="2">
       <t>タイ</t>
@@ -705,19 +692,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>カンツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HP10の雑魚を3、４体召喚</t>
-    <rPh sb="5" eb="7">
-      <t>ザコ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1122,6 +1096,32 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP10の雑魚を4体召喚</t>
+    <rPh sb="5" eb="7">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP10の雑魚を6体召喚</t>
+    <rPh sb="5" eb="7">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1842,6 +1842,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1860,69 +1908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1932,9 +1917,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1944,85 +1926,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2031,19 +1938,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2692,1204 +2692,1204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N22" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="72"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="72"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="73"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="21" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="17" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="12"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="22"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="62"/>
+      <c r="N8" s="63"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="9"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="63"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="16"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="20"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="U8" s="30"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="19" t="s">
+      <c r="U9" s="18"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="57"/>
+    </row>
+    <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="57"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="U10" s="18"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="57"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="57"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="18"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="57"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="18"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="57"/>
+    </row>
+    <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="57"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="41"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="57"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="U14" s="18"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="57"/>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="52"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="18"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="60"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="20"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="38"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="U9" s="33"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="28" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="38"/>
-    </row>
-    <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="38"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="U10" s="33"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="38"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="38"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="U11" s="33"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="38"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="38"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="33"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="38"/>
-    </row>
-    <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="38"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="38"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="38"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="U14" s="33"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="38"/>
-    </row>
-    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="U15" s="33"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="45"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="U16" s="33"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="31"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="10"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="54" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="23"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="U17" s="18"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="23"/>
+    </row>
+    <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="U17" s="33"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="34"/>
-    </row>
-    <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="37"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="32"/>
     </row>
     <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
-      <c r="P19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="U19" s="19"/>
-      <c r="V19" s="20"/>
+      <c r="P19" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="U19" s="62"/>
+      <c r="V19" s="63"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="27" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="22"/>
+    </row>
+    <row r="21" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="29" t="s">
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="16"/>
-    </row>
-    <row r="21" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="27" t="s">
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="26"/>
+    </row>
+    <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="74" t="s">
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="29"/>
+    </row>
+    <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="23"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="U23" s="56"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="22"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="27" t="s">
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="23"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="10"/>
-    </row>
-    <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="13"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="13"/>
-    </row>
-    <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="U23" s="28"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="16"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="66" t="s">
+      <c r="U24" s="56"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="23"/>
+    </row>
+    <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="59"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="32"/>
+    </row>
+    <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="34"/>
-    </row>
-    <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="U25" s="44"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="37"/>
-    </row>
-    <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
-      <c r="P26" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="29" t="s">
+      <c r="P26" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="U26" s="30"/>
-      <c r="V26" s="31"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="U26" s="9"/>
+      <c r="V26" s="10"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="29" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" s="18"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="22"/>
+    </row>
+    <row r="28" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="16"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="U27" s="33"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="29" t="s">
+      <c r="J28" s="18"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U28" s="18"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="26"/>
+    </row>
+    <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="18"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="16"/>
-    </row>
-    <row r="28" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="10"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="U28" s="33"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="10"/>
-    </row>
-    <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="42" t="s">
+      <c r="X29" s="31"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="29"/>
+    </row>
+    <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="35" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U30" s="18"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="22"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="23"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" s="18"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="23"/>
+    </row>
+    <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U32" s="31"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="32"/>
+    </row>
+    <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="13"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="U29" s="33"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="13"/>
-    </row>
-    <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="U30" s="33"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="16"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="U31" s="33"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="34"/>
-    </row>
-    <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="U32" s="36"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="37"/>
-    </row>
-    <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="42" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="16"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="42" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="35"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="35"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
+    </row>
+    <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="41"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="41"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="34"/>
-    </row>
-    <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="14" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="31"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="42" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="14" t="s">
+      <c r="G41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M41" s="21"/>
+      <c r="N41" s="22"/>
+    </row>
+    <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="M41" s="15"/>
-      <c r="N41" s="16"/>
-    </row>
-    <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="62" t="s">
+      <c r="J42" s="73"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M42" s="21"/>
+      <c r="N42" s="22"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="35"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="35"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J42" s="63"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="16"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="41"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="33"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="41"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="34"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="23"/>
     </row>
     <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="23"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="37"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="31"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="32"/>
     </row>
     <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="16"/>
+      <c r="A47" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="22"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E52" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="E54" s="69" t="s">
-        <v>65</v>
       </c>
       <c r="F54" s="5"/>
     </row>
@@ -3898,28 +3898,148 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="70"/>
+      <c r="E55" s="39"/>
       <c r="F55" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="P27:S32"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="P20:S25"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="L28:N29"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="P8:S18"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:E46"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B20:E25"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
@@ -3944,143 +4064,23 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B20:E25"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:E46"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="P8:S18"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:E39"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="L28:N29"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L21:N22"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="P20:S25"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="P27:S32"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ラスボス.xlsx
+++ b/ラスボス.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
   <si>
     <t>ステージ５</t>
     <phoneticPr fontId="1"/>
@@ -1122,6 +1122,16 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突進。一定時間こうちょｋ</t>
+    <rPh sb="0" eb="2">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>イッテイジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1842,42 +1852,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1887,7 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1908,6 +1882,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1917,6 +1942,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1926,10 +1954,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1938,112 +2041,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2693,47 +2703,47 @@
   <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="I13" sqref="I13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="47"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="47"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="47"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="72"/>
     </row>
     <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="48"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
@@ -2747,1123 +2757,1123 @@
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="11" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="61" t="s">
+      <c r="J7" s="22"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="11" t="s">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="11" t="s">
+      <c r="U7" s="22"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="61" t="s">
+      <c r="X7" s="22"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="22"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="10"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="49" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="62" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="63"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="8" t="s">
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="49" t="s">
+      <c r="U8" s="30"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="62" t="s">
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="63"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="17" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="50" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="56" t="s">
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="17" t="s">
+      <c r="M9" s="28"/>
+      <c r="N9" s="38"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="50" t="s">
+      <c r="U9" s="33"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="56" t="s">
+      <c r="X9" s="33"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="57"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="38"/>
     </row>
     <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="17" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="44" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="17" t="s">
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="38"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="U10" s="18"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="44" t="s">
+      <c r="U10" s="33"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="57"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="38"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="17" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="49" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="17" t="s">
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="38"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="49" t="s">
+      <c r="U11" s="33"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="57"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="38"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="17" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="43" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="17" t="s">
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="38"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="18"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="43" t="s">
+      <c r="U12" s="33"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="57"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="38"/>
     </row>
     <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="40" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="44" t="s">
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="57"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="40" t="s">
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="38"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="41"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="44" t="s">
+      <c r="U13" s="58"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="57"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="38"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="40" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="64" t="s">
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="40" t="s">
+      <c r="J14" s="40"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="38"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="U14" s="18"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="64" t="s">
+      <c r="U14" s="33"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="57"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="38"/>
     </row>
     <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="17" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="66" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="33"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="U15" s="18"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="60"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="45"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="17" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="49" t="s">
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="17" t="s">
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="U16" s="18"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="49" t="s">
+      <c r="U16" s="33"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="10"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="31"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="50" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="23"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="17" t="s">
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="U17" s="18"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="50" t="s">
+      <c r="U17" s="33"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="23"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="34"/>
     </row>
     <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="44" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="44" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="32"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="37"/>
     </row>
     <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="68" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="68" t="s">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="U19" s="62"/>
-      <c r="V19" s="63"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="20"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="55" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="8" t="s">
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="20" t="s">
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="55" t="s">
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="8" t="s">
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="21" t="s">
+      <c r="X20" s="30"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="22"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="10"/>
     </row>
     <row r="21" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="55" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="54" t="s">
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="24" t="s">
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="55" t="s">
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="75" t="s">
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="25" t="s">
+      <c r="X21" s="33"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="26"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="14"/>
     </row>
     <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="55" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="29"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="55" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="30" t="s">
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="29"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="17"/>
     </row>
     <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="55" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="23"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="55" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="U23" s="56"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="20" t="s">
+      <c r="U23" s="28"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="22"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="10"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="69" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="23"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="55" t="s">
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="U24" s="56"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="23"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="34"/>
     </row>
     <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="70" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="58" t="s">
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="U25" s="59"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="32"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="37"/>
     </row>
     <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="8" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
-      <c r="P26" s="20" t="s">
+      <c r="P26" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="8" t="s">
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="U26" s="9"/>
-      <c r="V26" s="10"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="31"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="17" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="33"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="20" t="s">
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="17" t="s">
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U27" s="18"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="8" t="s">
+      <c r="U27" s="33"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="20" t="s">
+      <c r="X27" s="30"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="22"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="10"/>
     </row>
     <row r="28" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="17" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="17" t="s">
+      <c r="G28" s="33"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24" t="s">
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="26"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="17" t="s">
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="U28" s="18"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="17" t="s">
+      <c r="U28" s="33"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="24" t="s">
+      <c r="X28" s="33"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="26"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="14"/>
     </row>
     <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="17" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="30" t="s">
+      <c r="G29" s="33"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="17" t="s">
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="18"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="30" t="s">
+      <c r="U29" s="33"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="29"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="17"/>
     </row>
     <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="17" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="20" t="s">
+      <c r="G30" s="33"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="17" t="s">
+      <c r="M30" s="9"/>
+      <c r="N30" s="10"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U30" s="18"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="36" t="s">
+      <c r="U30" s="33"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="22"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="10"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="17" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="23"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="17" t="s">
+      <c r="G31" s="33"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="U31" s="18"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="23"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
     </row>
     <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="30" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="30" t="s">
+      <c r="G32" s="36"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="U32" s="31"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="32"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="37"/>
     </row>
     <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="8" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="17" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="20" t="s">
+      <c r="G34" s="33"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="17" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="61" t="s">
+      <c r="G35" s="33"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M35" s="21"/>
-      <c r="N35" s="22"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="35"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="17" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="35"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="17" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="23"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
     </row>
     <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="8" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="17" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="8" t="s">
+      <c r="G41" s="33"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="20" t="s">
+      <c r="J41" s="30"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M41" s="21"/>
-      <c r="N41" s="22"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="10"/>
     </row>
     <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="17" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="72" t="s">
+      <c r="G42" s="33"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="73"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="20" t="s">
+      <c r="J42" s="63"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="17" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="35"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="41"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="17" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="35"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="41"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="17" t="s">
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="23"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="13"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="30" t="s">
+      <c r="B46" s="23"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="32"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E52" s="6" t="s">
@@ -3888,7 +3898,7 @@
       <c r="D54" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="38" t="s">
+      <c r="E54" s="69" t="s">
         <v>64</v>
       </c>
       <c r="F54" s="5"/>
@@ -3898,60 +3908,108 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="39"/>
+      <c r="E55" s="70"/>
       <c r="F55" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L21:N22"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="P20:S25"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="L28:N29"/>
+    <mergeCell ref="P27:S32"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:E18"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:E46"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="Z7:AB7"/>
     <mergeCell ref="P8:S18"/>
     <mergeCell ref="T8:V8"/>
@@ -3976,30 +4034,23 @@
     <mergeCell ref="W18:Y18"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="T7:V7"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:E46"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="L28:N29"/>
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="I23:K23"/>
@@ -4007,80 +4058,39 @@
     <mergeCell ref="B20:E25"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:E39"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:E18"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="P20:S25"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="P26:S26"/>
     <mergeCell ref="T26:V26"/>
-    <mergeCell ref="P27:S32"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ラスボス.xlsx
+++ b/ラスボス.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\shachiku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\shachiku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1842,42 +1842,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1887,7 +1851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1908,6 +1872,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1917,6 +1932,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1926,10 +1944,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1938,112 +2031,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2692,48 +2692,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="47"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="47"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="47"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="72"/>
     </row>
     <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="48"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
@@ -2747,1123 +2747,1123 @@
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="11" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="61" t="s">
+      <c r="J7" s="22"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="11" t="s">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="11" t="s">
+      <c r="U7" s="22"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="61" t="s">
+      <c r="X7" s="22"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="22"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="10"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="49" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="62" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="63"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="8" t="s">
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="49" t="s">
+      <c r="U8" s="30"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="62" t="s">
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="63"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="17" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="50" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="56" t="s">
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="17" t="s">
+      <c r="M9" s="28"/>
+      <c r="N9" s="38"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="50" t="s">
+      <c r="U9" s="33"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="56" t="s">
+      <c r="X9" s="33"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="57"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="38"/>
     </row>
     <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="17" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="44" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="17" t="s">
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="38"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="U10" s="18"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="44" t="s">
+      <c r="U10" s="33"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="57"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="38"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="17" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="49" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="17" t="s">
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="38"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="49" t="s">
+      <c r="U11" s="33"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="57"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="38"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="17" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="43" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="17" t="s">
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="38"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="18"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="43" t="s">
+      <c r="U12" s="33"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="57"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="38"/>
     </row>
     <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="40" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="44" t="s">
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="57"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="40" t="s">
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="38"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="41"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="44" t="s">
+      <c r="U13" s="58"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="57"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="38"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="40" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="64" t="s">
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="40" t="s">
+      <c r="J14" s="40"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="38"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="U14" s="18"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="64" t="s">
+      <c r="U14" s="33"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="57"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="38"/>
     </row>
     <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="17" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="66" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="17" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="U15" s="18"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="66" t="s">
+      <c r="U15" s="33"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="60"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="45"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="17" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="49" t="s">
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="17" t="s">
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="U16" s="18"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="49" t="s">
+      <c r="U16" s="33"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="10"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="31"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="50" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="23"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="17" t="s">
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="U17" s="18"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="50" t="s">
+      <c r="U17" s="33"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="23"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="34"/>
     </row>
     <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="44" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="44" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="32"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="37"/>
     </row>
     <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="68" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="68" t="s">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="U19" s="62"/>
-      <c r="V19" s="63"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="20"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="55" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="8" t="s">
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="20" t="s">
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="55" t="s">
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="8" t="s">
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="21" t="s">
+      <c r="X20" s="30"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="22"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="10"/>
     </row>
     <row r="21" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="55" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="54" t="s">
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="24" t="s">
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="55" t="s">
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="75" t="s">
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="25" t="s">
+      <c r="X21" s="33"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="26"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="14"/>
     </row>
     <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="55" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="29"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="55" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="30" t="s">
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="29"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="17"/>
     </row>
     <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="55" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="23"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="55" t="s">
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="U23" s="56"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="20" t="s">
+      <c r="U23" s="28"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="22"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="10"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="69" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="23"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="55" t="s">
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="U24" s="56"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="23"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="34"/>
     </row>
     <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="70" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="58" t="s">
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="U25" s="59"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="32"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="37"/>
     </row>
     <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="8" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
-      <c r="P26" s="20" t="s">
+      <c r="P26" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="8" t="s">
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="U26" s="9"/>
-      <c r="V26" s="10"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="31"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="17" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="33"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="20" t="s">
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="17" t="s">
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="U27" s="18"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="8" t="s">
+      <c r="U27" s="33"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="20" t="s">
+      <c r="X27" s="30"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="22"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="10"/>
     </row>
     <row r="28" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="17" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="17" t="s">
+      <c r="G28" s="33"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24" t="s">
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="26"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="17" t="s">
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="U28" s="18"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="17" t="s">
+      <c r="U28" s="33"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="24" t="s">
+      <c r="X28" s="33"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="26"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="14"/>
     </row>
     <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="17" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="30" t="s">
+      <c r="G29" s="33"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="17" t="s">
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="18"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="30" t="s">
+      <c r="U29" s="33"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="29"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="17"/>
     </row>
     <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="17" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="20" t="s">
+      <c r="G30" s="33"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="17" t="s">
+      <c r="M30" s="9"/>
+      <c r="N30" s="10"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="U30" s="18"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="36" t="s">
+      <c r="U30" s="33"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="22"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="10"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="17" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="23"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="17" t="s">
+      <c r="G31" s="33"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="U31" s="18"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="23"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
     </row>
     <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="30" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="30" t="s">
+      <c r="G32" s="36"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="U32" s="31"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="32"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="37"/>
     </row>
     <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="8" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="17" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="20" t="s">
+      <c r="G34" s="33"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="17" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="61" t="s">
+      <c r="G35" s="33"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M35" s="21"/>
-      <c r="N35" s="22"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="35"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="17" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="35"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="17" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="23"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
     </row>
     <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="8" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="17" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="8" t="s">
+      <c r="G41" s="33"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="20" t="s">
+      <c r="J41" s="30"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M41" s="21"/>
-      <c r="N41" s="22"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="10"/>
     </row>
     <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="17" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="72" t="s">
+      <c r="G42" s="33"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="73"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="20" t="s">
+      <c r="J42" s="63"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="17" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="35"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="41"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="17" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="35"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="41"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="17" t="s">
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="23"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="13"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="30" t="s">
+      <c r="B46" s="23"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="32"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E52" s="6" t="s">
@@ -3888,7 +3888,7 @@
       <c r="D54" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="38" t="s">
+      <c r="E54" s="69" t="s">
         <v>64</v>
       </c>
       <c r="F54" s="5"/>
@@ -3898,60 +3898,108 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="39"/>
+      <c r="E55" s="70"/>
       <c r="F55" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L21:N22"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="P20:S25"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="L28:N29"/>
+    <mergeCell ref="P27:S32"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:E18"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:E46"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="Z7:AB7"/>
     <mergeCell ref="P8:S18"/>
     <mergeCell ref="T8:V8"/>
@@ -3976,30 +4024,23 @@
     <mergeCell ref="W18:Y18"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="T7:V7"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:E46"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="L28:N29"/>
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="I23:K23"/>
@@ -4007,80 +4048,39 @@
     <mergeCell ref="B20:E25"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:E39"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:E18"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="P20:S25"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="P26:S26"/>
     <mergeCell ref="T26:V26"/>
-    <mergeCell ref="P27:S32"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
